--- a/day20/詳細設計書.xlsx
+++ b/day20/詳細設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\市川航\Documents\2020_training\day20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B23EBFB-696D-48E7-B0F8-BB7780AC41B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EAE84D-16A8-4A67-9E25-33966587D7E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="2865" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="処理機能記述書" sheetId="1" r:id="rId1"/>
@@ -204,52 +204,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>■フォーム未入力によるバリデーションエラーの出力
-■パスワード２０文字以上入力によるバリデーションエラーの出力
-■データベース照合失敗によるエラーの出力
-■データベース照合成功によって遷移するホームページ画面</t>
-    <rPh sb="5" eb="8">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ショウゴウ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>ショウゴウ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -836,6 +790,52 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ミツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■フォーム未入力によるバリデーションエラーの出力
+■パスワード21文字以上入力によるバリデーションエラーの出力
+■データベース照合失敗によるエラーの出力
+■データベース照合成功によって遷移するホームページ画面</t>
+    <rPh sb="5" eb="8">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1082,20 +1082,99 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1103,125 +1182,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1697,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1719,247 +1719,247 @@
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="6"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2012,8 +2012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3CB3C0-C9D1-4F6B-BD36-4D71932C0905}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2027,781 +2027,775 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="9"/>
-      <c r="B3" s="15" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" ht="112.5" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="75" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5"/>
+      <c r="B10" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="33"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="16" t="s">
+      <c r="D11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="33" customHeight="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="39">
+        <v>1</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" ht="112.5" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="17">
+      <c r="D12" s="34">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="17">
-        <v>1</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" ht="75" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="19">
+      <c r="E12" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" ht="39.75" customHeight="1">
+      <c r="A13" s="5"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="1:9" ht="38.25" customHeight="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" ht="31.5" customHeight="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:9" ht="25.5" customHeight="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="30"/>
+    </row>
+    <row r="17" spans="1:9" ht="63.75" customHeight="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="33"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="5"/>
+      <c r="B37" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="38"/>
+      <c r="D37" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="33"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="45.75" customHeight="1">
+      <c r="A39" s="5"/>
+      <c r="B39" s="34">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="17">
+      <c r="C39" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="34">
         <v>2</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="9"/>
-      <c r="B11" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="33" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="22">
-        <v>1</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="23">
-        <v>1</v>
-      </c>
-      <c r="E12" s="24" t="s">
+      <c r="E39" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27" t="s">
+      <c r="G39" s="14"/>
+      <c r="H39" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I39" s="16"/>
+    </row>
+    <row r="40" spans="1:9" ht="51.75" customHeight="1">
+      <c r="A40" s="5"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="28"/>
-    </row>
-    <row r="13" spans="1:9" ht="39.75" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="28"/>
-    </row>
-    <row r="14" spans="1:9" ht="38.25" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="28"/>
-    </row>
-    <row r="15" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="35" t="s">
+      <c r="G40" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="22.5" customHeight="1">
+      <c r="A41" s="5"/>
+      <c r="B41" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="28"/>
-    </row>
-    <row r="16" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38"/>
-    </row>
-    <row r="17" spans="1:9" ht="63.75" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="14"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="9"/>
-      <c r="B38" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="I38" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="45.75" customHeight="1">
-      <c r="A39" s="9"/>
-      <c r="B39" s="23">
-        <v>2</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="23">
-        <v>2</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="26"/>
-      <c r="H39" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="I39" s="28"/>
-    </row>
-    <row r="40" spans="1:9" ht="51.75" customHeight="1">
-      <c r="A40" s="9"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G40" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="H40" s="27" t="s">
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="30"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="5"/>
+      <c r="B42" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="I40" s="41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A41" s="9"/>
-      <c r="B41" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="38"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="9"/>
-      <c r="B42" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="14"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="33"/>
     </row>
     <row r="43" spans="1:9" ht="43.5" customHeight="1">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="9"/>
+      <c r="A58" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B37:C37"/>
@@ -2814,6 +2808,12 @@
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="E12:E15"/>
     <mergeCell ref="D2:G2"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2825,8 +2825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DCD442-EE1B-4AED-8780-AC4286F7F2BD}">
   <dimension ref="B2:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2838,320 +2838,345 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="44"/>
+      <c r="B2" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="45"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="46"/>
+      <c r="B3" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="52"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
+        <v>63</v>
+      </c>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2">
         <v>3306</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
+        <v>62</v>
+      </c>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="45"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="52"/>
+      <c r="D11" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="52"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="44"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="45" t="s">
+      <c r="C12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="46"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="44"/>
+      <c r="B15" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="45"/>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="7"/>
+      <c r="D16" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2">
         <v>1.2</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="8"/>
+      <c r="D17" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="2:5" ht="32.25" customHeight="1">
       <c r="B18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="2">
         <v>1000</v>
       </c>
-      <c r="D18" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="50"/>
+      <c r="D18" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="48"/>
     </row>
     <row r="19" spans="2:5" ht="129.75" customHeight="1">
-      <c r="B19" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="17">
+      <c r="B19" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="8">
         <v>144</v>
       </c>
-      <c r="D19" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="51"/>
+      <c r="D19" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="47"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
+      <c r="B20" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="47">
+        <v>67</v>
+      </c>
+      <c r="C21" s="23">
         <f>(C19+10)*C18*C17</f>
         <v>184800</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="47">
+        <v>69</v>
+      </c>
+      <c r="C22" s="23">
         <v>0.18479999999999999</v>
       </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="45"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="44"/>
+      <c r="B25" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="45"/>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="7"/>
+      <c r="D26" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="23">
+        <v>4096</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="45"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="47">
-        <v>4096</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="44"/>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="47" t="s">
+      <c r="C28" s="23">
+        <v>144</v>
+      </c>
+      <c r="D28" s="44"/>
+      <c r="E28" s="45"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="47">
-        <v>144</v>
-      </c>
-      <c r="D28" s="43"/>
-      <c r="E28" s="44"/>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="47" t="s">
+      <c r="C29" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="47">
+      <c r="C30" s="23">
         <f>C27/(C28+10)</f>
         <v>26.597402597402599</v>
       </c>
-      <c r="D30" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="44"/>
+      <c r="D30" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="45"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="44"/>
+      <c r="B33" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="45"/>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="7"/>
+      <c r="D34" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="25"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="47">
+      <c r="B35" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="23">
         <v>1000</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="47">
+      <c r="B36" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="23">
         <v>27</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="47">
+      <c r="B37" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="23">
         <v>1.2</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="47">
+      <c r="C39" s="23">
         <f>1000/27*1.2</f>
         <v>44.444444444444443</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E39" s="8"/>
+      <c r="D39" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D34:E34"/>
@@ -3161,31 +3186,6 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="B33:E33"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/day20/詳細設計書.xlsx
+++ b/day20/詳細設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\市川航\Documents\2020_training\day20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EAE84D-16A8-4A67-9E25-33966587D7E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58AAD29-FA71-4939-9213-142C6D14C975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,12 +88,640 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>システム名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>day20_設計課題</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>day20_設計課題</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザ区分</t>
+    <rPh sb="3" eb="5">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面名</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロゴの表示、メールアドレスとパスワードの入力フォーム、ログインボタンを表示する</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フォーム入力とログインボタンクリック後、正しいユーザアカウントと承認されたらホームページへ画面遷移する。</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホームページ画面</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロゴの表示、「こんにちは、xxxx(ユーザ名)」の表示、ログアウトボタンの表示</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログアウトボタンクリック後はログイン画面へ画面遷移する</t>
+    <rPh sb="12" eb="13">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面名</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>識別No</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面部品の種類</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロゴの表示</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレス入力フォーム</t>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワード入力フォーム</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+  </si>
+  <si>
+    <t>ログインボタン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>操作説明</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. メールアドレスを入力。
+2. パスワードを入力。
+3. メールアドレスとパスワードを入力後、「ログイン」ボタンをクリック。</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザ区分</t>
+    <rPh sb="3" eb="5">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面部品の種類</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホームページ画面</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログアウトボタン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 「ログアウト」ボタンをクリック。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザへメッセージを表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンをクリックしてログアウトが可能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接続情報</t>
+    <rPh sb="0" eb="2">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポート番号</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベース名</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベース構成</t>
+    <rPh sb="6" eb="8">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>loginSite</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ichikawa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p0ladm1n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安全率</t>
+    <rPh sb="0" eb="3">
+      <t>アンゼンリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レコード件数</t>
+    <rPh sb="4" eb="6">
+      <t>ケンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均行サイズ</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル容量概算</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>研修向けにレコード件数の値を1000件に設定</t>
+    <rPh sb="0" eb="2">
+      <t>ケンシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンスウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2が一般的であり、研修ではこの値で十分と判断</t>
+    <rPh sb="4" eb="7">
+      <t>イッパンテキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンシュウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジュウブン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザID(INT)+名前(VARCHAR(60))+メールアドレス(VARCHAR(255))+パスワード(VARCHAR(20))
+平均データ容量にて見積もる
+2+(40+4)+(70+4)+(20+4)=144</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページ・サイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均行サイズ</t>
+    <rPh sb="0" eb="3">
+      <t>ヘイキンギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算式</t>
+    <rPh sb="0" eb="3">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1ページあたりの行数</t>
+    <rPh sb="8" eb="10">
+      <t>ギョウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ページサイズ/(平均行サイズ+10))=1ページあたりの行数</t>
+    <rPh sb="9" eb="12">
+      <t>ヘイキンギョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ギョウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四捨五入して27</t>
+    <rPh sb="0" eb="4">
+      <t>シシャゴニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4KB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算式</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要ページ数</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(レコード件数/1ページあたりの行数)*安全率=必要ページ数</t>
+    <rPh sb="5" eb="7">
+      <t>ケンスウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ギョウスウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>アンゼンリツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四捨五入して44</t>
+    <rPh sb="0" eb="4">
+      <t>シシャゴニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要ページ数の計算</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル容量の見積もり</t>
+    <rPh sb="4" eb="6">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ミツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■バリデーションチェックによる出力情報はテスト仕様書を参照
+■データベース照合失敗によるエラーの出力
+■データベース照合成功によって遷移するホームページ画面</t>
+    <rPh sb="15" eb="17">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>■メールアドレスとパスワードを入力し、ボタンをクリックすると情報をデータベースへ照合し、ホームページへ画面遷移する。
 １．バリデーションチェック
-①メールアドレス・パスワードの未入力チェック
-②パスワードが２０文字以内かチェック
+テスト仕様書を参照
 2.　フォーム情報の送信
-①入力されたメールアドレスとパスワードをAPIに送る？
+①入力されたメールアドレスとパスワードをAPIに送る
 3.　データベースとの照会
 ①メールアドレスとパスワードを用いてユーザ情報を抽出する
 4.　照合結果の送信
@@ -114,728 +742,89 @@
     <rPh sb="51" eb="55">
       <t>ガメンセンイ</t>
     </rPh>
-    <rPh sb="89" eb="92">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>イナイ</t>
-    </rPh>
-    <rPh sb="124" eb="126">
+    <rPh sb="77" eb="80">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
       <t>ジョウホウ</t>
     </rPh>
-    <rPh sb="127" eb="129">
+    <rPh sb="95" eb="97">
       <t>ソウシン</t>
     </rPh>
-    <rPh sb="131" eb="133">
+    <rPh sb="99" eb="101">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="154" eb="155">
+    <rPh sb="122" eb="123">
       <t>オク</t>
     </rPh>
-    <rPh sb="170" eb="172">
+    <rPh sb="137" eb="139">
       <t>ショウカイ</t>
     </rPh>
-    <rPh sb="188" eb="189">
+    <rPh sb="155" eb="156">
       <t>モチ</t>
     </rPh>
+    <rPh sb="161" eb="163">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="173" eb="177">
+      <t>ショウゴウケッカ</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="187" eb="189">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="190" eb="192">
+      <t>シッパイ</t>
+    </rPh>
     <rPh sb="194" eb="196">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="197" eb="199">
-      <t>チュウシュツ</t>
-    </rPh>
-    <rPh sb="206" eb="210">
-      <t>ショウゴウケッカ</t>
-    </rPh>
-    <rPh sb="211" eb="213">
       <t>ソウシン</t>
     </rPh>
-    <rPh sb="215" eb="217">
+    <rPh sb="208" eb="210">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="212" eb="214">
       <t>ショウゴウ</t>
     </rPh>
-    <rPh sb="217" eb="219">
+    <rPh sb="214" eb="216">
       <t>ケッカ</t>
     </rPh>
-    <rPh sb="220" eb="222">
+    <rPh sb="219" eb="221">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="222" eb="224">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="225" eb="226">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="229" eb="231">
       <t>セイコウ</t>
     </rPh>
-    <rPh sb="223" eb="225">
+    <rPh sb="239" eb="243">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="245" eb="247">
       <t>シッパイ</t>
     </rPh>
-    <rPh sb="227" eb="229">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="241" eb="243">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="245" eb="247">
-      <t>ショウゴウ</t>
-    </rPh>
-    <rPh sb="247" eb="249">
-      <t>ケッカ</t>
-    </rPh>
     <rPh sb="252" eb="254">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="255" eb="257">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="258" eb="259">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="262" eb="264">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="272" eb="276">
-      <t>ガメンセンイ</t>
-    </rPh>
-    <rPh sb="278" eb="280">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="285" eb="287">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="292" eb="294">
+    <rPh sb="259" eb="261">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>システム名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>システム名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>day20_設計課題</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>day20_設計課題</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザ区分</t>
-    <rPh sb="3" eb="5">
-      <t>クブン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画面名</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画面概要</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>共通</t>
-    <rPh sb="0" eb="2">
-      <t>キョウツウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログイン画面</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ロゴの表示、メールアドレスとパスワードの入力フォーム、ログインボタンを表示する</t>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>フォーム入力とログインボタンクリック後、正しいユーザアカウントと承認されたらホームページへ画面遷移する。</t>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ホームページ画面</t>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ロゴの表示、「こんにちは、xxxx(ユーザ名)」の表示、ログアウトボタンの表示</t>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログアウトボタンクリック後はログイン画面へ画面遷移する</t>
-    <rPh sb="12" eb="13">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画面名</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>識別No</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画面部品の種類</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブヒン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>概要</t>
-    <rPh sb="0" eb="2">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログイン画面</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>①</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ロゴの表示</t>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>②</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テキストボックス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メールアドレス入力フォーム</t>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>③</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>パスワード入力フォーム</t>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>④</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ボタン</t>
-  </si>
-  <si>
-    <t>ログインボタン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>操作説明</t>
-    <rPh sb="0" eb="2">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. メールアドレスを入力。
-2. パスワードを入力。
-3. メールアドレスとパスワードを入力後、「ログイン」ボタンをクリック。</t>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ゴ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザ区分</t>
-    <rPh sb="3" eb="5">
-      <t>クブン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画面部品の種類</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ホームページ画面</t>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログアウトボタン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 「ログアウト」ボタンをクリック。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザへメッセージを表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボタンをクリックしてログアウトが可能</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>接続情報</t>
-    <rPh sb="0" eb="2">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ホスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ポート番号</t>
-  </si>
-  <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ名</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データベース名</t>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データベース構成</t>
-    <rPh sb="6" eb="8">
-      <t>コウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>loginSite</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ichikawa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p0ladm1n</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>127.0.0.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>安全率</t>
-    <rPh sb="0" eb="3">
-      <t>アンゼンリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レコード件数</t>
-    <rPh sb="4" eb="6">
-      <t>ケンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>平均行サイズ</t>
-    <rPh sb="0" eb="2">
-      <t>ヘイキン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バイト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブル容量概算</t>
-  </si>
-  <si>
-    <t>MB</t>
-  </si>
-  <si>
-    <t>項目</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>値</t>
-    <rPh sb="0" eb="1">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>研修向けにレコード件数の値を1000件に設定</t>
-    <rPh sb="0" eb="2">
-      <t>ケンシュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケンスウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.2が一般的であり、研修ではこの値で十分と判断</t>
-    <rPh sb="4" eb="7">
-      <t>イッパンテキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ケンシュウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジュウブン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ハンダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザID(INT)+名前(VARCHAR(60))+メールアドレス(VARCHAR(255))+パスワード(VARCHAR(20))
-平均データ容量にて見積もる
-2+(40+4)+(70+4)+(20+4)=144</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ページ・サイズ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>平均行サイズ</t>
-    <rPh sb="0" eb="3">
-      <t>ヘイキンギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>計算式</t>
-    <rPh sb="0" eb="3">
-      <t>ケイサンシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1ページあたりの行数</t>
-    <rPh sb="8" eb="10">
-      <t>ギョウスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(ページサイズ/(平均行サイズ+10))=1ページあたりの行数</t>
-    <rPh sb="9" eb="12">
-      <t>ヘイキンギョウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ギョウスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>四捨五入して27</t>
-    <rPh sb="0" eb="4">
-      <t>シシャゴニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4KB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>計算式</t>
-    <rPh sb="0" eb="2">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>必要ページ数</t>
-    <rPh sb="0" eb="2">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(レコード件数/1ページあたりの行数)*安全率=必要ページ数</t>
-    <rPh sb="5" eb="7">
-      <t>ケンスウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ギョウスウ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>アンゼンリツ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>四捨五入して44</t>
-    <rPh sb="0" eb="4">
-      <t>シシャゴニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>必要ページ数の計算</t>
-    <rPh sb="0" eb="2">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケイサン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブル容量の見積もり</t>
-    <rPh sb="4" eb="6">
-      <t>ヨウリョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ミツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>■フォーム未入力によるバリデーションエラーの出力
-■パスワード21文字以上入力によるバリデーションエラーの出力
-■データベース照合失敗によるエラーの出力
-■データベース照合成功によって遷移するホームページ画面</t>
-    <rPh sb="5" eb="8">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ショウゴウ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>ショウゴウ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -905,7 +894,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1064,11 +1053,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1144,9 +1142,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1159,7 +1154,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1167,27 +1162,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1197,32 +1192,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1697,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1740,226 +1753,226 @@
       <c r="G3" s="25"/>
     </row>
     <row r="4" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2039,38 +2052,38 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="5"/>
-      <c r="B2" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="B2" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="22"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -2081,19 +2094,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="8">
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -2104,19 +2117,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="8">
         <v>2</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -2167,145 +2180,145 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5"/>
-      <c r="B10" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
+      <c r="B10" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>13</v>
-      </c>
       <c r="D11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="G11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="H11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="I11" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="33" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="39">
+      <c r="B12" s="36">
         <v>1</v>
       </c>
-      <c r="C12" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="34">
+      <c r="C12" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="37">
         <v>1</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:9" ht="39.75" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="42"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="H13" s="15" t="s">
         <v>35</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:9" ht="38.25" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="42"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>38</v>
       </c>
       <c r="I14" s="16"/>
     </row>
     <row r="15" spans="1:9" ht="31.5" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="43"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="42"/>
       <c r="F15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="H15" s="19" t="s">
         <v>40</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>41</v>
       </c>
       <c r="I15" s="16"/>
     </row>
     <row r="16" spans="1:9" ht="25.5" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="30"/>
+      <c r="B16" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1">
       <c r="A17" s="5"/>
-      <c r="B17" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="33"/>
+      <c r="B17" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="32"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="5"/>
@@ -2518,113 +2531,113 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="5"/>
-      <c r="B37" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="33"/>
+      <c r="B37" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="34"/>
+      <c r="D37" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="32"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="5"/>
       <c r="B38" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>45</v>
-      </c>
       <c r="H38" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="45.75" customHeight="1">
       <c r="A39" s="5"/>
-      <c r="B39" s="34">
+      <c r="B39" s="37">
         <v>2</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="37">
+        <v>2</v>
+      </c>
+      <c r="E39" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="34">
-        <v>2</v>
-      </c>
-      <c r="E39" s="34" t="s">
-        <v>47</v>
-      </c>
       <c r="F39" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I39" s="16"/>
     </row>
     <row r="40" spans="1:9" ht="51.75" customHeight="1">
       <c r="A40" s="5"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
       <c r="F40" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="22.5" customHeight="1">
       <c r="A41" s="5"/>
-      <c r="B41" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="30"/>
+      <c r="B41" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="29"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="5"/>
-      <c r="B42" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="33"/>
+      <c r="B42" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="32"/>
     </row>
     <row r="43" spans="1:9" ht="43.5" customHeight="1">
       <c r="A43" s="5"/>
@@ -2796,6 +2809,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B37:C37"/>
@@ -2808,12 +2827,6 @@
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="E12:E15"/>
     <mergeCell ref="D2:G2"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2825,7 +2838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DCD442-EE1B-4AED-8780-AC4286F7F2BD}">
   <dimension ref="B2:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D19" sqref="D19:E19"/>
     </sheetView>
   </sheetViews>
@@ -2838,268 +2851,268 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="45"/>
+      <c r="B2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="52"/>
+      <c r="B3" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="46"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
+        <v>62</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2">
         <v>3306</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
+        <v>61</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="45"/>
+        <v>60</v>
+      </c>
+      <c r="D7" s="47"/>
+      <c r="E7" s="48"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="45"/>
+      <c r="B10" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="48"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="52"/>
+      <c r="B11" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
+        <v>59</v>
+      </c>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="45"/>
+      <c r="B15" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="48"/>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="D16" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="25"/>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="2">
         <v>1.2</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17" s="24"/>
     </row>
     <row r="18" spans="2:5" ht="32.25" customHeight="1">
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="2">
         <v>1000</v>
       </c>
-      <c r="D18" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="48"/>
+      <c r="D18" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="49"/>
     </row>
     <row r="19" spans="2:5" ht="129.75" customHeight="1">
       <c r="B19" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="8">
         <v>144</v>
       </c>
-      <c r="D19" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="47"/>
+      <c r="D19" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="51"/>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="23"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="45"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="23">
         <f>(C19+10)*C18*C17</f>
         <v>184800</v>
       </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="45"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="23">
         <v>0.18479999999999999</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="45"/>
+      <c r="B25" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="48"/>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="D26" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" s="25"/>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="23">
         <v>4096</v>
       </c>
-      <c r="D27" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="45"/>
+      <c r="D27" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="48"/>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" s="23">
         <v>144</v>
       </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="45"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" s="23">
         <f>C27/(C28+10)</f>
         <v>26.597402597402599</v>
       </c>
-      <c r="D30" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="45"/>
+      <c r="D30" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="48"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="45"/>
+      <c r="B33" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="48"/>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="D34" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34" s="25"/>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C35" s="23">
         <v>1000</v>
@@ -3109,7 +3122,7 @@
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" s="23">
         <v>27</v>
@@ -3119,7 +3132,7 @@
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" s="23">
         <v>1.2</v>
@@ -3129,46 +3142,37 @@
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" s="23">
         <f>1000/27*1.2</f>
         <v>44.444444444444443</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E39" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B33:E33"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="C29:E29"/>
@@ -3178,14 +3182,23 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
